--- a/supplement/5_ophio_cflo_hierachical_clusters_list.xlsx
+++ b/supplement/5_ophio_cflo_hierachical_clusters_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roos_brouns/Dropbox/Ant-fungus/02_scripts/Git_Das_folder2/Das_et_al_2022a/supplement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E915AF3-C7F6-4846-A1F7-371641CAD54F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A18B23-B653-624D-A8ED-A60F6B2F3CD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="500" windowWidth="15660" windowHeight="17500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4780" yWindow="500" windowWidth="15660" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ophio_cflo_24_hierachical_clust" sheetId="1" r:id="rId1"/>
@@ -18377,7 +18377,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C2286"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -43530,7 +43530,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C2286" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="C1:C2286" xr:uid="{81547C6F-410F-3649-867F-F362ABDA200B}">
     <filterColumn colId="0">
       <filters>
         <filter val="1"/>
@@ -47872,7 +47872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C246"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
